--- a/biology/Médecine/Théophile_Godfraind/Théophile_Godfraind.xlsx
+++ b/biology/Médecine/Théophile_Godfraind/Théophile_Godfraind.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Godfraind</t>
+          <t>Théophile_Godfraind</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théophile Godfraind est un médecin belge, né le 18 février 1931 à Bande en province de Luxembourg.
-D'abord médecin généraliste, il est connu pour ses travaux en pharmacologie. Depuis 1996, il est professeur émérite de physiologie et pharmacologie de l'Université catholique de Louvain[1].
+D'abord médecin généraliste, il est connu pour ses travaux en pharmacologie. Depuis 1996, il est professeur émérite de physiologie et pharmacologie de l'Université catholique de Louvain.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Godfraind</t>
+          <t>Théophile_Godfraind</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Théophile (Joseph Cyrille Gilles) est né le 18 février 1931 à Bande en province de Luxembourg, Théophile Godfraind fait ses études secondaires à l'Athénée Royal d'Ixelles puis entame des études de médecine à l'Université catholique de Louvain qu'il termine en 1955.
-Théophile Godfraind a été professeur de physiologie et de pharmacologie (émérite depuis 1996) à l'Université catholique de Louvain. Il a été élu comme correspondant régnicole de l'Académie royale de médecine de Belgique le 18 mai 1974, puis membre titulaire le 30 juin 1984 ; il en a présidé le bureau en 1991. Il est l'éditeur en chef de la revue Frontiers in Pharmacology. Il a été secrétaire général (1987-1994) puis président (1994-1998) de l'Union internationale de pharmacologie fondamentale et clinique. Il est inclus dans la liste des « Highly Cited Researchers », qui recense les auteurs scientifiques les plus cités[1].
+Théophile Godfraind a été professeur de physiologie et de pharmacologie (émérite depuis 1996) à l'Université catholique de Louvain. Il a été élu comme correspondant régnicole de l'Académie royale de médecine de Belgique le 18 mai 1974, puis membre titulaire le 30 juin 1984 ; il en a présidé le bureau en 1991. Il est l'éditeur en chef de la revue Frontiers in Pharmacology. Il a été secrétaire général (1987-1994) puis président (1994-1998) de l'Union internationale de pharmacologie fondamentale et clinique. Il est inclus dans la liste des « Highly Cited Researchers », qui recense les auteurs scientifiques les plus cités.
 Il est marié, père de deux enfants et a huit petits-enfants[Quand ?].
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Godfraind</t>
+          <t>Théophile_Godfraind</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Affiliations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Docteur honoris causa :
 université Louis-Pasteur de Strasbourg, 1984 ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Godfraind</t>
+          <t>Théophile_Godfraind</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix du Concours des Bourses de Voyage, 1955.
 Prix SPECIA, 1955.
